--- a/data/balance_sheet/3digits/total/732_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/732_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>732-Market research and public opinion polling</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>732-Market research and public opinion polling</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>218903.47703</v>
@@ -1493,29 +943,34 @@
         <v>602625.30296</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>525050.5423399999</v>
+        <v>525050.54234</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>610401.31965</v>
+        <v>632304.0119800001</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>734968.97522</v>
+        <v>738943.45558</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>796186.56163</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>605110.3503500001</v>
+        <v>605764.4281500001</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>688662.02697</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>713416.8287300001</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>925780.612</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>81269.28661</v>
@@ -1524,38 +979,43 @@
         <v>50920.58326</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>65229.11197999999</v>
+        <v>65229.11198</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>80225.13626</v>
+        <v>80225.13625999998</v>
       </c>
       <c r="G6" s="23" t="n">
         <v>143184.84123</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>76654.31961000001</v>
+        <v>76654.31961000002</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>85911.14847999999</v>
+        <v>96690.19654999999</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>124826.206</v>
+        <v>126963.14014</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>108490.2652</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>137589.71027</v>
+        <v>137641.91889</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>188422.33558</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>189142.30373</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>255875.157</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>15889.35494</v>
@@ -1564,7 +1024,7 @@
         <v>20075.66821</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>7847.416370000001</v>
+        <v>7847.41637</v>
       </c>
       <c r="F7" s="21" t="n">
         <v>9069.03945</v>
@@ -1573,29 +1033,34 @@
         <v>14102.97696</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>9539.176110000002</v>
+        <v>9539.176109999999</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>10634.92469</v>
+        <v>10634.99879</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>8250.81515</v>
+        <v>8480.541159999999</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>14545.20177</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>18113.8509</v>
+        <v>18148.07729</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>26641.89177</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>26924.25304</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>42341.632</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>2245.5159</v>
@@ -1616,29 +1081,34 @@
         <v>2137.20631</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>4676.03763</v>
+        <v>6634.431860000001</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>5035.86902</v>
+        <v>5035.869029999999</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>5677.02933</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>5399.32489</v>
+        <v>5399.324890000001</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>11325.80907</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>12186.92467</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>6311.848</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>63428.2903</v>
+        <v>63428.29030000001</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>30508.88688</v>
@@ -1647,7 +1117,7 @@
         <v>56828.08383</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>71303.88814999998</v>
+        <v>71303.88815</v>
       </c>
       <c r="G9" s="22" t="n">
         <v>127520.73845</v>
@@ -1656,26 +1126,31 @@
         <v>65198.306</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>70679.33262</v>
+        <v>79499.91236</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>112808.32383</v>
+        <v>114715.53195</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>88531.87711</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>116661.60303</v>
+        <v>116679.58526</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>153862.06519</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>153931.32561</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>209250.272</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>616.6965600000001</v>
@@ -1690,7 +1165,7 @@
         <v>1164.89861</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>559.6734399999999</v>
+        <v>559.67344</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>360.56546</v>
@@ -1708,14 +1183,19 @@
         <v>3120.30525</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>3439.23442</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>3932.00356</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>3069.731</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>322.82203</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>31.80397</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>1041.136</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>3411.58816</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>1640.28834</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>1127.014</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>16.0585</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>930.6375800000001</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>653.29381</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>551.9690000000001</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>271.71416</v>
@@ -1890,7 +1390,7 @@
         <v>2544.99198</v>
       </c>
       <c r="G15" s="22" t="n">
-        <v>318.30491</v>
+        <v>318.3049099999999</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>299.02566</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>280.01478</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>130.015</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>2209.23642</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>690.92125</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>445.03</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>71352.01797999999</v>
@@ -2016,26 +1531,31 @@
         <v>296725.18005</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>322080.10345</v>
+        <v>332391.86424</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>357919.36786</v>
+        <v>359572.63699</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>480037.84326</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>344349.21936</v>
+        <v>344937.5303600001</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>363257.43903</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>377373.9818199999</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>427092.91</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>66738.81420000001</v>
@@ -2056,26 +1576,31 @@
         <v>208705.38873</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>213177.00674</v>
+        <v>223376.26493</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>244838.85003</v>
+        <v>246492.11916</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>322447.97604</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>333490.84573</v>
+        <v>334079.15673</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>346529.72102</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>359965.17592</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>409031.167</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>3769.52801</v>
@@ -2096,7 +1621,7 @@
         <v>4022.81241</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>7969.68888</v>
+        <v>7969.688880000001</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>8414.49798</v>
@@ -2108,14 +1633,19 @@
         <v>6235.3017</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>11333.06249</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>11833.06249</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>12390.576</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>404.40653</v>
@@ -2207,16 +1747,16 @@
         <v>822.89545</v>
       </c>
       <c r="F23" s="21" t="n">
-        <v>882.5131</v>
+        <v>882.5131000000001</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>792.1651499999999</v>
+        <v>792.16515</v>
       </c>
       <c r="H23" s="21" t="n">
         <v>1076.93728</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>1083.51008</v>
+        <v>1195.69668</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>2362.714179999999</v>
@@ -2228,14 +1768,19 @@
         <v>1543.07057</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>1750.63947</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>1931.72736</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>2183.575</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>234.06882</v>
@@ -2256,7 +1801,7 @@
         <v>81083.44164</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>98030.87145999999</v>
+        <v>98031.18745999999</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>100482.41338</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>1963.04224</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>1065.61</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1304.01301</v>
@@ -2296,7 +1846,7 @@
         <v>2599.4737</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>3070.60139</v>
+        <v>3195.30611</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>3491.76333</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>10246.77073</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>6860.582</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>1098.81259</v>
@@ -2333,10 +1888,10 @@
         <v>1247.75779</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>762.8737100000001</v>
+        <v>762.87371</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>1251.5751</v>
+        <v>1376.27982</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>1670.87104</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>8565.796920000001</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>4438.6</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>43479.06252000001</v>
@@ -2376,26 +1936,31 @@
         <v>88109.04635999999</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>118908.00399</v>
+        <v>119235.60644</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>163492.35389</v>
+        <v>163535.59295</v>
       </c>
       <c r="K27" s="23" t="n">
-        <v>98491.84335</v>
+        <v>98491.84334999998</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>26037.0727</v>
+        <v>26037.37154</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>32652.67091</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>38448.00397</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>63071.935</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>4247.30159</v>
@@ -2416,7 +1981,7 @@
         <v>22397.29483</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>37862.01804</v>
+        <v>38160.24304</v>
       </c>
       <c r="J28" s="21" t="n">
         <v>19096.80964</v>
@@ -2428,14 +1993,19 @@
         <v>15550.05005</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>19958.58305</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>25089.69978</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>35159.325</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>91.76757000000001</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>19.87738</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>3728.7459</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>15415.249</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>83.34783999999999</v>
@@ -2536,13 +2116,13 @@
         <v>334.7726</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>289.5680800000001</v>
+        <v>289.56808</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>629.22299</v>
+        <v>649.08089</v>
       </c>
       <c r="K31" s="22" t="n">
-        <v>400.4113400000001</v>
+        <v>400.41134</v>
       </c>
       <c r="L31" s="22" t="n">
         <v>696.0610800000001</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>255.53376</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>391.264</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>39128.53571</v>
@@ -2567,7 +2152,7 @@
         <v>95990.99648999999</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>94278.65242</v>
+        <v>94278.65241999998</v>
       </c>
       <c r="G32" s="22" t="n">
         <v>60178.35481</v>
@@ -2576,26 +2161,31 @@
         <v>65376.96038</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>78287.97693999999</v>
+        <v>78317.35439000001</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>134146.19231</v>
+        <v>134169.57347</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>66574.18418</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>8050.895699999999</v>
+        <v>8051.19454</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>8456.772859999999</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>9120.98919</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>11986.097</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>161.26777</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>120</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>3483.68037</v>
@@ -2736,7 +2341,7 @@
         <v>11748.04294</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>23551.26226</v>
+        <v>23577.07373</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>21979.82663</v>
@@ -2745,17 +2350,22 @@
         <v>28303.28511</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>19903.11209</v>
+        <v>19906.93601</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>28844.87689</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>31337.92812</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>37873.211</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>65.54966999999999</v>
@@ -2788,14 +2398,19 @@
         <v>595.92664</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>451.68452</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>640.20952</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>2396.011</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>90.16553</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>67.208</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>145.83834</v>
@@ -2868,14 +2488,19 @@
         <v>1247.37618</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>1040.08866</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>1050.375</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>373.32706</v>
@@ -2902,20 +2527,25 @@
         <v>3922.16978</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>9614.1253</v>
+        <v>9614.125300000002</v>
       </c>
       <c r="L40" s="22" t="n">
         <v>3083.09726</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>8602.983120000001</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>8809.436960000001</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>12610.608</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>327.53718</v>
@@ -2936,7 +2566,7 @@
         <v>1010.33626</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>1081.57273</v>
+        <v>1081.59983</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>2245.38123</v>
@@ -2948,14 +2578,19 @@
         <v>1639.47116</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>1891.66721</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>2048.75907</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>2391.803</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>2571.42812</v>
@@ -3010,13 +2650,13 @@
         <v>3351.81911</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>7725.109700000001</v>
+        <v>7725.1097</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>8373.859469999999</v>
+        <v>8373.859470000001</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>18752.16868</v>
+        <v>18777.95305</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>13509.48824</v>
@@ -3025,17 +2665,22 @@
         <v>13764.67972</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>13010.2032</v>
+        <v>13014.02712</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>17808.37651</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>18709.26838</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>19357.206</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>156.97309</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>112.04757</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>112.048</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>156.97309</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>112.04757</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>112.048</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>5773.59847</v>
@@ -3216,10 +2881,10 @@
         <v>17727.31233</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>12928.87386</v>
+        <v>12928.93012</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>23713.65237</v>
+        <v>23715.03319</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>25129.36415</v>
@@ -3228,14 +2893,19 @@
         <v>29358.81292</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>31628.42137</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>32151.40484</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>40171.216</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>1077.94171</v>
@@ -3250,13 +2920,13 @@
         <v>4209.45366</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>3535.46265</v>
+        <v>3535.462649999999</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>5686.9438</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>5727.9889</v>
+        <v>5728.045160000001</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>12427.60933</v>
@@ -3268,23 +2938,28 @@
         <v>18471.0873</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>16577.88563</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>17100.8691</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>18525.473</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
-        <v>4695.65676</v>
+        <v>4695.656760000001</v>
       </c>
       <c r="D50" s="22" t="n">
         <v>5795.03424</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>9621.470919999998</v>
+        <v>9621.47092</v>
       </c>
       <c r="F50" s="21" t="n">
         <v>8141.72957</v>
@@ -3299,10 +2974,10 @@
         <v>7200.884959999999</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>11286.04304</v>
+        <v>11287.42386</v>
       </c>
       <c r="K50" s="22" t="n">
-        <v>9387.487959999999</v>
+        <v>9387.48796</v>
       </c>
       <c r="L50" s="22" t="n">
         <v>10887.72562</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>15050.53574</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>21645.743</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>9977.269829999999</v>
@@ -3336,26 +3016,31 @@
         <v>28861.22289</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>39206.46726999999</v>
+        <v>39664.88056</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>39675.24292</v>
+        <v>39814.90013</v>
       </c>
       <c r="K51" s="46" t="n">
-        <v>53272.59402000001</v>
+        <v>53272.59402</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>45037.5129</v>
+        <v>45046.94832</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>42103.94728</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>43210.87034</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>100457.121</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>788.8557</v>
@@ -3367,7 +3052,7 @@
         <v>1977.54195</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>7363.33476</v>
+        <v>7363.334760000001</v>
       </c>
       <c r="G52" s="22" t="n">
         <v>10685.27924</v>
@@ -3376,26 +3061,31 @@
         <v>16618.40675</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>22274.29648</v>
+        <v>22508.40965</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>26633.19501</v>
+        <v>26633.25631</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>38175.18554999999</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>27141.54142</v>
+        <v>27143.11698</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>30945.53364</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>31266.89582</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>74171.48</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>128.24718</v>
@@ -3416,7 +3106,7 @@
         <v>118.52995</v>
       </c>
       <c r="I53" s="22" t="n">
-        <v>0.9258800000000001</v>
+        <v>165.28519</v>
       </c>
       <c r="J53" s="21" t="n">
         <v>3.1054</v>
@@ -3428,14 +3118,19 @@
         <v>148.54249</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>1100.02452</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>1100.15052</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>1.281</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>475.88883</v>
@@ -3465,17 +3160,22 @@
         <v>505.55359</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>765.23834</v>
+        <v>765.2383400000001</v>
       </c>
       <c r="M54" s="22" t="n">
         <v>544.2558500000001</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>507.789</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>5111.94725</v>
@@ -3490,32 +3190,37 @@
         <v>1469.27303</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>9401.982889999999</v>
+        <v>9401.982890000001</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>7394.86221</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>9455.819369999999</v>
+        <v>9518.135370000002</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>7504.94889</v>
+        <v>7508.38246</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>8171.672079999999</v>
+        <v>8171.67208</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>11926.50037</v>
+        <v>11934.36023</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>2534.24307</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>2733.63556</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>16162.774</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>3080.534110000001</v>
@@ -3536,10 +3241,10 @@
         <v>4067.28881</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>5974.88841</v>
+        <v>5972.5122</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>5080.327580000001</v>
+        <v>5089.67413</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>5144.294879999999</v>
@@ -3548,14 +3253,19 @@
         <v>4775.615229999999</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>5935.81822</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>6521.860610000001</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>8444.272999999999</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>227.24411</v>
@@ -3576,10 +3286,10 @@
         <v>513.95586</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>212.1024</v>
+        <v>212.10342</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>187.13267</v>
+        <v>313.94846</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>267.30555</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>370.72092</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>930.321</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>19.104</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>164.55265</v>
@@ -3659,7 +3379,7 @@
         <v>1138.8712</v>
       </c>
       <c r="J59" s="21" t="n">
-        <v>3.043600000000001</v>
+        <v>3.0436</v>
       </c>
       <c r="K59" s="22" t="n">
         <v>167.02292</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>673.3510600000001</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>220.099</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>30027.48151</v>
@@ -3735,32 +3465,37 @@
         <v>422991.7195299999</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>486283.5994400001</v>
+        <v>492279.73138</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>1527697.12328</v>
+        <v>1530124.24737</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>1856721.932</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>141509.41284</v>
+        <v>141514.95172</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>144367.17855</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>150115.53824</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>164344.978</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>1472.30751</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>833.6071200000001</v>
+        <v>833.60712</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>1002.6155</v>
@@ -3778,10 +3513,10 @@
         <v>2268.4657</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>2258.83794</v>
+        <v>2423.84135</v>
       </c>
       <c r="K62" s="36" t="n">
-        <v>4850.165529999999</v>
+        <v>4850.16553</v>
       </c>
       <c r="L62" s="36" t="n">
         <v>2437.87273</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>3069.53392</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>6231.176</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>46.22803</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>1184.21333</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>1163.72023</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>4013.568</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>241.86615</v>
@@ -3978,10 +3738,10 @@
         <v>1421.09814</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>2240.90454</v>
+        <v>2405.90795</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>4832.23213</v>
+        <v>4832.232130000001</v>
       </c>
       <c r="L67" s="22" t="n">
         <v>1616.2191</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>1905.81369</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>2217.608</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>1089.56949</v>
@@ -4058,7 +3828,7 @@
         <v>1167.39982</v>
       </c>
       <c r="J69" s="37" t="n">
-        <v>832.4076700000001</v>
+        <v>960.23055</v>
       </c>
       <c r="K69" s="36" t="n">
         <v>1783.92624</v>
@@ -4067,14 +3837,19 @@
         <v>2289.06442</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>3541.07729</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>6637.91292</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>14227.923</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>643.54368</v>
@@ -4107,14 +3882,19 @@
         <v>1883.24793</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>1312.19467</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>4409.030299999999</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>3954.154</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>403.55776</v>
@@ -4218,7 +4008,7 @@
         <v>221.07568</v>
       </c>
       <c r="J73" s="21" t="n">
-        <v>0</v>
+        <v>127.82288</v>
       </c>
       <c r="K73" s="22" t="n">
         <v>186.18606</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>100.33788</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>24.939</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>42.46805000000001</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>2128.54474</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>10248.83</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>5769.74547</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>15544.39789</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>17394.398</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0.028</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>1858</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>0</v>
@@ -4507,14 +4332,19 @@
         <v>38.9036</v>
       </c>
       <c r="M80" s="22" t="n">
-        <v>95.43370000000002</v>
-      </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+        <v>95.4337</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <v>70.434</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>5768.517</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>15465.96419</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>15465.964</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>1.20047</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>13556.17709</v>
@@ -4806,7 +4671,7 @@
         <v>26121.9633</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>47361.20011000001</v>
+        <v>47361.20011</v>
       </c>
       <c r="G88" s="23" t="n">
         <v>55112.33809</v>
@@ -4815,26 +4680,31 @@
         <v>153993.0474</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>169935.81562</v>
+        <v>173837.40026</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>188455.35658</v>
+        <v>189613.48942</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>208138.39285</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>51542.98647</v>
+        <v>51546.3763</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>53813.34687</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>55480.91202999999</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>62357.707</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>0</v>
@@ -4858,7 +4728,7 @@
         <v>131270.94691</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>141565.94691</v>
+        <v>142330.94691</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>154501.94691</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>1916.0825</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>1916.082</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>3394.18144</v>
@@ -4947,14 +4827,19 @@
         <v>15929.60583</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>19264.64387</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>19440.51685</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>20976.846</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>16669.20964</v>
@@ -4975,7 +4860,7 @@
         <v>17200.08378</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>865.3989799999999</v>
+        <v>17579.43442</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>17182.58318</v>
@@ -4987,17 +4872,22 @@
         <v>16613.90084</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>22949.61321</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>22951.4005</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>23263.133</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
-        <v>6182.669199999999</v>
+        <v>6182.6692</v>
       </c>
       <c r="D93" s="22" t="n">
         <v>6383.04844</v>
@@ -5018,7 +4908,7 @@
         <v>9047.94443</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>9530.898039999998</v>
+        <v>10380.36043</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>13225.3955</v>
@@ -5027,14 +4917,19 @@
         <v>17717.82699</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>20124.09619</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>21095.51402</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>28152.167</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>20560.33572</v>
@@ -5046,7 +4941,7 @@
         <v>27131.20284</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>33993.59737999999</v>
+        <v>33993.59738</v>
       </c>
       <c r="G94" s="22" t="n">
         <v>39930.77053</v>
@@ -5055,26 +4950,31 @@
         <v>40220.25928</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>43908.40669</v>
+        <v>44917.12308</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>46742.7893</v>
+        <v>47608.87499</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>51863.63382</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>49677.78785</v>
+        <v>49682.02514</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>49643.31602000001</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>50565.42676</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>53641.497</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>367.3102000000001</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>1500.0601</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>2966.071</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>33712.04264</v>
@@ -5129,32 +5034,37 @@
         <v>28066.17841</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>35266.10801999999</v>
+        <v>35266.10802</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>39062.06919</v>
+        <v>39062.06918999999</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>32080.19731</v>
+        <v>45901.3645</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>50316.06859</v>
+        <v>51638.48383</v>
       </c>
       <c r="K96" s="22" t="n">
-        <v>58309.44703999999</v>
+        <v>58309.44704</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>57734.01976</v>
+        <v>57734.86722</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>61911.5289</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>62315.15258</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>68902.70600000001</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>84.74719999999999</v>
@@ -5175,7 +5085,7 @@
         <v>2202.04122</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>6438.00935</v>
+        <v>6438.009349999999</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>12414.87053</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>324.35079</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>324.351</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>9.76633</v>
@@ -5229,15 +5144,20 @@
       <c r="M98" s="22" t="n">
         <v>2.71309</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>20.266</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
-        <v>5331.45902</v>
+        <v>5331.459019999999</v>
       </c>
       <c r="D99" s="23" t="n">
         <v>5381.7961</v>
@@ -5252,32 +5172,37 @@
         <v>28942.41432</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>33428.67851</v>
+        <v>33428.67851000001</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>28005.1195</v>
+        <v>29707.1671</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>47828.0769</v>
+        <v>48080.02093999999</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>45817.02043</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>45288.37148</v>
+        <v>45290.27348</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>46734.92791000001</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>46866.63918000001</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>40983.273</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
-        <v>4096.638300000001</v>
+        <v>4096.6383</v>
       </c>
       <c r="D100" s="22" t="n">
         <v>4243.06346</v>
@@ -5295,10 +5220,10 @@
         <v>11077.40749</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>9122.97545</v>
+        <v>10279.84439</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>10210.77214</v>
+        <v>10314.72722</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>11712.16063</v>
@@ -5307,14 +5232,19 @@
         <v>17027.48825</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>18368.01656</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>18377.87113</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>19364.241</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>834.11235</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>22020.00836</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>22020.008</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>34.51056</v>
@@ -5384,17 +5319,22 @@
         <v>13619.2275</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>13625.35951</v>
+        <v>13627.26151</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>13628.1667</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>13631.0702</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>13635.835</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>655.78331</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>3163.55416</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>5333.997</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>7121.631540000001</v>
@@ -5455,10 +5400,10 @@
         <v>16861.12297</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>16934.77738</v>
+        <v>19546.43061</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>27583.76089</v>
+        <v>28333.60662999999</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>30328.78356</v>
@@ -5467,14 +5412,19 @@
         <v>25441.30712</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>29913.7017</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>29987.83965</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>26684.754</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>2228.32641</v>
@@ -5504,23 +5454,28 @@
         <v>8308.759040000001</v>
       </c>
       <c r="L105" s="22" t="n">
-        <v>7099.573560000001</v>
+        <v>7099.57356</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>7595.86913</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>7684.213400000001</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>8616.226000000001</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>9639.817440000001</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>9911.403789999998</v>
+        <v>9911.40379</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>11080.77303</v>
@@ -5535,26 +5490,31 @@
         <v>18417.81185</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>22023.48408</v>
+        <v>24089.95865</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>30335.70704</v>
+        <v>30937.56382</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>40256.53797</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>42634.1304</v>
+        <v>42634.13040000001</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>48927.87085</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>48971.39987000001</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>55645.27</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0.27399</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>973.48215</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>973.482</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>2805.14164</v>
@@ -5843,7 +5838,7 @@
         <v>2813.4821</v>
       </c>
       <c r="E114" s="23" t="n">
-        <v>4871.164859999999</v>
+        <v>4871.164860000001</v>
       </c>
       <c r="F114" s="33" t="n">
         <v>5577.75992</v>
@@ -5855,26 +5850,31 @@
         <v>12035.03038</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>12665.05259</v>
+        <v>13057.55229</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>18033.79683</v>
+        <v>18758.01775</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>18383.98406</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>18143.38706</v>
+        <v>18143.63411</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>16518.46178</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>17370.70941</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>18340.114</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>2805.14164</v>
@@ -5883,38 +5883,43 @@
         <v>2813.4821</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>4871.164859999999</v>
+        <v>4871.164860000001</v>
       </c>
       <c r="F115" s="21" t="n">
         <v>5576.507009999999</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>9169.753219999999</v>
+        <v>9169.753220000001</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>11963.03038</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>12662.46936</v>
+        <v>13054.96906</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>18033.79683</v>
+        <v>18758.01775</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>18383.98406</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>18118.44106</v>
+        <v>18118.68811</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>16503.01178</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>17355.25941</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>18324.664</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>15.45</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>3.08129</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>5145.43289</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>4810.387</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>3.08129</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>3.08129</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>1723.49972</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>1354.63</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>84.32158</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>35.636</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>3503.17346</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>3486.39</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>248930.95854</v>
@@ -6366,7 +6426,7 @@
         <v>450066.82752</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>523000.1198100001</v>
+        <v>523000.1198099999</v>
       </c>
       <c r="G127" s="23" t="n">
         <v>845050.44042</v>
@@ -6375,23 +6435,26 @@
         <v>948042.26187</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>1096684.91909</v>
+        <v>1124583.74336</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>2262666.0985</v>
+        <v>2269067.70295</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>2652908.49363</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>746619.7631900001</v>
+        <v>747279.3798700001</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>833029.20552</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>863532.36697</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1090125.59</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>732-Market research and public opinion polling</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,15 +6553,20 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>72014.89567999999</v>
+        <v>72014.89568</v>
       </c>
       <c r="D132" s="23" t="n">
         <v>82843.13434</v>
@@ -6501,32 +6578,37 @@
         <v>192248.89673</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>416520.5628900001</v>
+        <v>416520.56289</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>581758.1433</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>594042.2442000001</v>
+        <v>608872.9234200001</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>1431515.75524</v>
+        <v>1432149.69842</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1381736.30645</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>408344.73006</v>
+        <v>408932.43673</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>454230.9941</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>474160.35775</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>552946.325</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>2457.4563</v>
@@ -6535,7 +6617,7 @@
         <v>2762.22485</v>
       </c>
       <c r="E133" s="23" t="n">
-        <v>70267.10347000002</v>
+        <v>70267.10347</v>
       </c>
       <c r="F133" s="33" t="n">
         <v>4586.34712</v>
@@ -6550,7 +6632,7 @@
         <v>215989.72789</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>203968.98451</v>
+        <v>203968.98452</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>251001.29664</v>
@@ -6559,14 +6641,19 @@
         <v>13390.78655</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>11424.47481</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>12110.20152</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>14215.931</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>2393.2963</v>
@@ -6575,16 +6662,16 @@
         <v>2732.85288</v>
       </c>
       <c r="E134" s="22" t="n">
-        <v>70145.01147000001</v>
+        <v>70145.01147</v>
       </c>
       <c r="F134" s="21" t="n">
-        <v>4442.847379999999</v>
+        <v>4442.84738</v>
       </c>
       <c r="G134" s="22" t="n">
         <v>140865.45794</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>32906.13295</v>
+        <v>32906.13295000001</v>
       </c>
       <c r="I134" s="22" t="n">
         <v>211665.72322</v>
@@ -6599,14 +6686,19 @@
         <v>9307.872820000001</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>10146.85794</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>10782.54017</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>13014.886</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>39.70988</v>
@@ -6630,7 +6722,7 @@
         <v>6.32589</v>
       </c>
       <c r="J135" s="21" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="K135" s="22" t="n">
         <v>2.05431</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>650.87985</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>244.126</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>19.74601</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>43.86615</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>18.21987</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>345.696</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0.32998</v>
@@ -6916,17 +7043,22 @@
         <v>49907.03505000001</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>602.6084999999999</v>
+        <v>602.6085</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>608.51715</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>658.56163</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>611.223</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>29874.20584</v>
@@ -6935,7 +7067,7 @@
         <v>41045.93012</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>56041.53793999999</v>
+        <v>56041.53794</v>
       </c>
       <c r="F143" s="45" t="n">
         <v>97705.76082000001</v>
@@ -6944,29 +7076,34 @@
         <v>147264.28926</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>411977.2708699999</v>
+        <v>411977.27087</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>271976.28687</v>
+        <v>275746.7048</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>1074960.25709</v>
+        <v>1075120.4178</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>936369.4320599999</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>237801.56307</v>
+        <v>238346.30368</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>277512.24844</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>284206.82473</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>311164.832</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>26798.55242</v>
@@ -6978,7 +7115,7 @@
         <v>53697.78436</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>74490.61745000001</v>
+        <v>74490.61744999999</v>
       </c>
       <c r="G144" s="25" t="n">
         <v>97412.74028</v>
@@ -6987,26 +7124,31 @@
         <v>160548.56908</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>156037.749</v>
+        <v>159783.16693</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>153842.43764</v>
+        <v>154002.59835</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>209336.61529</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>226187.84131</v>
+        <v>226732.01292</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>259346.75924</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>265549.08845</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>288787.982</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>1756.39068</v>
@@ -7027,7 +7169,7 @@
         <v>3212.58062</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>7200.66377</v>
+        <v>7200.663769999999</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>6643.16919</v>
@@ -7039,14 +7181,19 @@
         <v>6695.94437</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>13966.90813</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>14418.90813</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>16735.142</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>119.14828</v>
@@ -7107,7 +7259,7 @@
         <v>82.99256</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>1.99823</v>
+        <v>26.99823</v>
       </c>
       <c r="J147" s="24" t="n">
         <v>16.6</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>141.33877</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>170.264</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>1200.11446</v>
@@ -7150,23 +7307,28 @@
         <v>108735.87587</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>914458.0502600002</v>
+        <v>914458.05026</v>
       </c>
       <c r="K148" s="25" t="n">
-        <v>719204.3772699999</v>
+        <v>719204.3772700001</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>4873.79078</v>
+        <v>4874.359780000001</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>4057.2423</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>4097.48938</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>5521.444</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>12365.26687</v>
@@ -7181,32 +7343,37 @@
         <v>58661.3405</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>67934.73501</v>
+        <v>67934.73500999999</v>
       </c>
       <c r="H149" s="33" t="n">
         <v>77127.02522</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>40970.57014</v>
+        <v>50676.94306</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>57639.49243</v>
+        <v>57669.28801999999</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>41412.77183</v>
+        <v>41412.77183000001</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>46139.12828</v>
+        <v>46166.49617</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>63739.86251</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>65505.19076</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>77837.522</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>4033.68886</v>
@@ -7218,7 +7385,7 @@
         <v>15008.28873</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>34057.4383</v>
+        <v>34057.43829999999</v>
       </c>
       <c r="G150" s="22" t="n">
         <v>38383.38554</v>
@@ -7227,26 +7394,31 @@
         <v>41680.95340999999</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>20066.63836</v>
+        <v>29694.06853</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>29606.32899</v>
+        <v>29606.329</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>19669.44599</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>24899.7654</v>
+        <v>24922.16855</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>38146.78389999999</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>39552.98737</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>28122.275</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>1.7437</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>41.30035</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0.06023</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>2930.45371</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>26438.944</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>705.17699</v>
@@ -7347,7 +7529,7 @@
         <v>2851.31739</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>2374.71642</v>
+        <v>2380.39125</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>3891.94555</v>
@@ -7356,17 +7538,22 @@
         <v>4187.17415</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>3757.15408</v>
+        <v>3759.14564</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>4198.48984</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>4530.28479</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>4514.7</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>7624.59709</v>
@@ -7387,26 +7574,31 @@
         <v>31634.14606</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>17181.55865</v>
+        <v>17254.82657</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>18341.36185</v>
+        <v>18371.15743</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>15257.95476</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>12575.7862</v>
+        <v>12578.75938</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>18422.83471</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>18450.16454</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>18761.485</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>1841.11973</v>
@@ -7467,32 +7664,37 @@
         <v>3314.69105</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>6190.754019999999</v>
+        <v>6190.2214</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>5342.89307</v>
       </c>
       <c r="K156" s="23" t="n">
-        <v>5108.66962</v>
+        <v>5108.669620000001</v>
       </c>
       <c r="L156" s="23" t="n">
         <v>10813.12934</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>10140.21266</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>10193.71266</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>15539.357</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>1221.4221</v>
       </c>
       <c r="D157" s="22" t="n">
-        <v>912.88041</v>
+        <v>912.8804099999999</v>
       </c>
       <c r="E157" s="22" t="n">
         <v>2103.86381</v>
@@ -7507,7 +7709,7 @@
         <v>3314.69105</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>6190.754019999999</v>
+        <v>6189.967390000001</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>5340.51615</v>
@@ -7516,17 +7718,22 @@
         <v>5100.376220000001</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>9571.839860000002</v>
+        <v>9571.83986</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>8938.618399999999</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>8992.118400000001</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>14335.434</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>619.69763</v>
@@ -7547,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="22" t="n">
-        <v>0</v>
+        <v>0.25401</v>
       </c>
       <c r="J158" s="21" t="n">
         <v>2.37692</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>1201.59426</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>1203.923</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>123.26978</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>123.27</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>123.26978</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>123.27</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>12655.67078</v>
@@ -7707,26 +7934,31 @@
         <v>32990.15017</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>33122.10672</v>
+        <v>34273.24832</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>42597.61724</v>
+        <v>43041.60411</v>
       </c>
       <c r="K162" s="23" t="n">
-        <v>54531.59616000001</v>
+        <v>54531.59615999999</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>61980.53212999999</v>
+        <v>61991.67053999999</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>64212.30877</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>74441.42734000001</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>92973.432</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>9451.167079999999</v>
@@ -7747,26 +7979,31 @@
         <v>18230.37356</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>18234.4853</v>
+        <v>19111.73736</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>22356.27014</v>
+        <v>22663.12569</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>29733.70091</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>35473.86835</v>
+        <v>35484.03622</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>34704.81499</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>40154.12458</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>56335.248</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2006.28469</v>
@@ -7787,26 +8024,31 @@
         <v>4710.59259</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>5475.98491</v>
+        <v>5749.87445</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>8347.35687</v>
+        <v>8484.488190000002</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>10928.96768</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>10016.9652</v>
+        <v>10017.73472</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>11132.58152</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>12561.15899</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>11848.305</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1197.71901</v>
@@ -7836,17 +8078,22 @@
         <v>13521.23952</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>16443.67051</v>
+        <v>16443.87153</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>18281.7083</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>21626.41281</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>24693.946</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0.5</v>
@@ -7879,14 +8126,19 @@
         <v>46.02807</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>93.20396000000001</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>99.73096000000001</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>95.93300000000001</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>6898.61909</v>
@@ -7907,7 +8159,7 @@
         <v>10056.62341</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>11545.23376</v>
+        <v>11588.93687</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>11474.74091</v>
@@ -7916,17 +8168,22 @@
         <v>11237.7588</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>10897.98937</v>
+        <v>10902.44913</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>4217.083799999999</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>4717.99759</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>19558.768</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>11048.8514</v>
@@ -7938,7 +8195,7 @@
         <v>15730.67684</v>
       </c>
       <c r="F168" s="21" t="n">
-        <v>8768.371260000002</v>
+        <v>8768.37126</v>
       </c>
       <c r="G168" s="22" t="n">
         <v>18064.84964</v>
@@ -7950,23 +8207,28 @@
         <v>15269.80729</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>15869.71267</v>
+        <v>16132.75555</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>18482.72646</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>23198.16371</v>
+        <v>23202.7726</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>22201.01332</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>23693.03502</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>39207.45</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>4427.66101</v>
@@ -7987,26 +8249,31 @@
         <v>4682.88899</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>5136.19299</v>
+        <v>5092.48988</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>4634.50449</v>
+        <v>4897.547370000001</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>7552.532</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>12662.59195</v>
+        <v>12662.74108</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>18514.57383</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>19505.68174</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>19959.507</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>129.71175</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>218</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>301.30873</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>242.06</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>147.71695</v>
@@ -8121,15 +8398,20 @@
       <c r="M172" s="22" t="n">
         <v>11.33558</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>68.765</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
-        <v>5773.584199999999</v>
+        <v>5773.584200000001</v>
       </c>
       <c r="D173" s="23" t="n">
         <v>5123.3487</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>20582.36655</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>19824.769</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>2140.0799</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>9378.95775</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>13640.969</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>3633.5043</v>
@@ -8221,10 +8513,10 @@
         <v>2985.62386</v>
       </c>
       <c r="G175" s="22" t="n">
-        <v>7799.175689999999</v>
+        <v>7799.17569</v>
       </c>
       <c r="H175" s="21" t="n">
-        <v>7307.356809999999</v>
+        <v>7307.35681</v>
       </c>
       <c r="I175" s="22" t="n">
         <v>7219.405059999999</v>
@@ -8233,7 +8525,7 @@
         <v>25527.96487</v>
       </c>
       <c r="K175" s="22" t="n">
-        <v>61000.0665</v>
+        <v>61000.06649999999</v>
       </c>
       <c r="L175" s="22" t="n">
         <v>8969.10274</v>
@@ -8241,18 +8533,23 @@
       <c r="M175" s="22" t="n">
         <v>11203.4088</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>6183.8</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>148.97287</v>
       </c>
       <c r="D176" s="23" t="n">
-        <v>84.40363000000001</v>
+        <v>84.40362999999999</v>
       </c>
       <c r="E176" s="23" t="n">
         <v>762.347</v>
@@ -8267,7 +8564,7 @@
         <v>161.3994</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>124.96522</v>
+        <v>284.5415</v>
       </c>
       <c r="J176" s="33" t="n">
         <v>125.21437</v>
@@ -8276,17 +8573,22 @@
         <v>1397.0911</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>861.1420400000001</v>
+        <v>861.14204</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>2279.16678</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>2279.36682</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>1708.444</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>90.77885999999998</v>
@@ -8307,7 +8609,7 @@
         <v>110.5038</v>
       </c>
       <c r="I177" s="22" t="n">
-        <v>13.716</v>
+        <v>173.29228</v>
       </c>
       <c r="J177" s="21" t="n">
         <v>1.044</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>1157.65772</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>2.972</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>58.19401</v>
@@ -8359,14 +8666,19 @@
         <v>27.18017</v>
       </c>
       <c r="M178" s="22" t="n">
-        <v>39.80256</v>
-      </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+        <v>40.0026</v>
+      </c>
+      <c r="N178" s="22" t="n">
+        <v>99.937</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>1081.5535</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>1605.382</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.153</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>4424.56388</v>
@@ -8495,22 +8822,22 @@
         <v>3989.53235</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>5654.366950000001</v>
+        <v>5654.36695</v>
       </c>
       <c r="F182" s="33" t="n">
-        <v>43090.05273000001</v>
+        <v>43090.05273</v>
       </c>
       <c r="G182" s="23" t="n">
         <v>63797.97785</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>51665.31983000001</v>
+        <v>51665.31983</v>
       </c>
       <c r="I182" s="23" t="n">
         <v>24472.39384</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>173048.96716</v>
+        <v>173050.54115</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>669508.06761</v>
@@ -8519,14 +8846,19 @@
         <v>24182.52151</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>25202.58498</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>25909.38924</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>36409.277</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>911.3992</v>
@@ -8538,10 +8870,10 @@
         <v>1163.79973</v>
       </c>
       <c r="F183" s="33" t="n">
-        <v>36653.4966</v>
+        <v>36653.49659999999</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>56845.35527000001</v>
+        <v>56845.35527</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>45725.55568</v>
@@ -8559,14 +8891,19 @@
         <v>4909.48822</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>4485.263800000001</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>4653.2036</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>9188.445</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>756.71479</v>
@@ -8578,10 +8915,10 @@
         <v>1097.79012</v>
       </c>
       <c r="F184" s="21" t="n">
-        <v>36489.70350000001</v>
+        <v>36489.7035</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>56801.25962000001</v>
+        <v>56801.25962</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>45672.52542000001</v>
@@ -8593,20 +8930,25 @@
         <v>21096.42139</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>527351.06142</v>
+        <v>527351.0614199999</v>
       </c>
       <c r="L184" s="22" t="n">
         <v>4841.33384</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>4485.263800000001</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>4635.0937</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>9180.371999999999</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>199.51649</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>44.83208</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8839,14 +9206,19 @@
         <v>68.15438</v>
       </c>
       <c r="M190" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+        <v>18.1099</v>
+      </c>
+      <c r="N190" s="22" t="n">
+        <v>8.073</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>88.9687</v>
@@ -8879,14 +9251,19 @@
         <v>3794.11486</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>5965.84314</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>5965.843140000001</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>2633.657</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>1545.32555</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>1160.557</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>88.9687</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>4340.977400000001</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>1405.045</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>76.20456</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>57.57</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>3.33563</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>10.485</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>1304.42188</v>
@@ -9119,14 +9521,19 @@
         <v>11820.10542</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>8874.377719999999</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>9413.242179999999</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>18294.05</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>974.78561</v>
@@ -9147,7 +9554,7 @@
         <v>977.98601</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>4722.79669</v>
+        <v>4722.796689999999</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>3824.82282</v>
@@ -9159,14 +9566,19 @@
         <v>6898.73206</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>5315.5513</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>5854.41576</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>12394.397</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>329.63627</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9356,17 +9788,22 @@
         <v>5054.56704</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>4921.37336</v>
+        <v>4921.373360000001</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>3558.82642</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>3899.653</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>14.97</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>14.97</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>1994.40678</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>3131.80891</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>4668.996</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>1994.40678</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>3131.80891</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>4668.996</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>110.39732</v>
@@ -9630,7 +10097,7 @@
         <v>347.29207</v>
       </c>
       <c r="J210" s="33" t="n">
-        <v>471.57365</v>
+        <v>473.14764</v>
       </c>
       <c r="K210" s="23" t="n">
         <v>759.3590300000001</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>2745.29141</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>1623.984</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>110.39732</v>
@@ -9670,7 +10142,7 @@
         <v>347.29207</v>
       </c>
       <c r="J211" s="21" t="n">
-        <v>287.66601</v>
+        <v>289.24</v>
       </c>
       <c r="K211" s="22" t="n">
         <v>331.5661500000001</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>2656.22168</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>1516.249</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9719,14 +10196,19 @@
         <v>403.02474</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>89.06972999999999</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>89.06973000000001</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>107.735</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>172491.49898</v>
@@ -9907,26 +10409,31 @@
         <v>314618.79874</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>478170.28105</v>
+        <v>491238.4261</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>658101.3761</v>
+        <v>663867.46338</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>601664.11957</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>314092.51162</v>
+        <v>314164.42163</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>353595.6264400001</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>363462.61998</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>500769.988</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>28548.8901</v>
@@ -9935,7 +10442,7 @@
         <v>40097.52204</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>84800.58748999999</v>
+        <v>84800.58749000001</v>
       </c>
       <c r="F218" s="33" t="n">
         <v>101711.42968</v>
@@ -9947,10 +10454,10 @@
         <v>182616.05369</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>321274.38291</v>
+        <v>337884.38291</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>359910.63763</v>
+        <v>366179.68825</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>365677.41672</v>
@@ -9959,14 +10466,19 @@
         <v>152931.25843</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>154364.15099</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>155029.52973</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>165907.48</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>22544.40189</v>
@@ -9987,26 +10499,31 @@
         <v>233385.18449</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>315391.42286</v>
+        <v>332001.42286</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>358048.12423</v>
+        <v>359056.14413</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>360144.46713</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>148647.36714</v>
+        <v>148969.36714</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>150117.36714</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>152174.89214</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>165156.408</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>3203.0062</v>
@@ -10036,17 +10553,22 @@
         <v>3726.6374</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>4888.642989999999</v>
+        <v>5210.64299</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>4919.857819999999</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>6312.382820000001</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>8351.976000000001</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>9207.494409999999</v>
@@ -10070,23 +10592,28 @@
         <v>9250.84245</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>3931.7418</v>
+        <v>9192.77252</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>9259.58699</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>9172.53428</v>
+        <v>9172.534280000002</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>9166.641669999999</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>9167.020410000001</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>9103.048000000001</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>4000.75067</v>
@@ -10141,16 +10673,16 @@
         <v>6904.05907</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>9171.973980000001</v>
+        <v>9171.973979999999</v>
       </c>
       <c r="H223" s="33" t="n">
-        <v>9170.94015</v>
+        <v>9170.940149999999</v>
       </c>
       <c r="I223" s="23" t="n">
         <v>9244.80017</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>8965.351690000001</v>
+        <v>8965.35169</v>
       </c>
       <c r="K223" s="23" t="n">
         <v>8735.76008</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>8545.756890000001</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>9208.538</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>933.8188299999999</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>933.819</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>34.39623</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>12.60203</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>2.408</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>3966.35444</v>
@@ -10424,16 +10991,16 @@
         <v>8267.471950000001</v>
       </c>
       <c r="H230" s="21" t="n">
-        <v>8266.438120000001</v>
+        <v>8266.438119999999</v>
       </c>
       <c r="I230" s="22" t="n">
         <v>8334.55631</v>
       </c>
       <c r="J230" s="21" t="n">
-        <v>7989.339220000001</v>
+        <v>7989.33922</v>
       </c>
       <c r="K230" s="22" t="n">
-        <v>7789.339220000001</v>
+        <v>7789.33922</v>
       </c>
       <c r="L230" s="22" t="n">
         <v>7789.336029999999</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>7599.33603</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>8272.311</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>21267.84665</v>
@@ -10464,13 +11036,13 @@
         <v>65744.27387</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>66505.93173000001</v>
+        <v>66505.93173</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>64169.08490000001</v>
+        <v>68035.97007</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>70130.10458</v>
+        <v>71624.85346000001</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>76047.24399</v>
@@ -10479,20 +11051,25 @@
         <v>76835.90210000001</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>92574.24571</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>93183.40506999999</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>94925.32000000001</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>6146.98158</v>
       </c>
       <c r="D232" s="22" t="n">
-        <v>7788.637320000001</v>
+        <v>7788.63732</v>
       </c>
       <c r="E232" s="22" t="n">
         <v>9574.750480000001</v>
@@ -10507,7 +11084,7 @@
         <v>13265.18731</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>13920.74556</v>
+        <v>13991.58654</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>14616.20331</v>
@@ -10519,14 +11096,19 @@
         <v>15306.65466</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>30532.36392</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>30742.20426</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>32290.194</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>825.33433</v>
@@ -10547,7 +11129,7 @@
         <v>1350.27888</v>
       </c>
       <c r="I233" s="22" t="n">
-        <v>201.53047</v>
+        <v>1138.60098</v>
       </c>
       <c r="J233" s="21" t="n">
         <v>1115.39516</v>
@@ -10561,18 +11143,23 @@
       <c r="M233" s="22" t="n">
         <v>1295.78064</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>1295.782</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>5694.26874</v>
       </c>
       <c r="D234" s="22" t="n">
-        <v>6816.678730000001</v>
+        <v>6816.67873</v>
       </c>
       <c r="E234" s="22" t="n">
         <v>7462.83841</v>
@@ -10587,7 +11174,7 @@
         <v>8469.806020000002</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>6526.98782</v>
+        <v>9385.961499999999</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>10551.35179</v>
@@ -10599,14 +11186,19 @@
         <v>14773.97288</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>15065.85094</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>15465.16996</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>15578.077</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>8.56334</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>193.518</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>8601.262000000001</v>
@@ -10670,7 +11267,7 @@
         <v>43511.25771</v>
       </c>
       <c r="J236" s="21" t="n">
-        <v>43838.59097999999</v>
+        <v>45333.33986</v>
       </c>
       <c r="K236" s="22" t="n">
         <v>48238.64897</v>
@@ -10681,15 +11278,20 @@
       <c r="M236" s="22" t="n">
         <v>45671.68687</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>45567.749</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
-        <v>89079.61001</v>
+        <v>89079.61000999999</v>
       </c>
       <c r="D237" s="23" t="n">
         <v>114410.53363</v>
@@ -10707,7 +11309,7 @@
         <v>141193.62568</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>177283.38031</v>
+        <v>177809.58931</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>233457.94966</v>
@@ -10716,17 +11318,22 @@
         <v>275898.96222</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>215375.95838</v>
+        <v>215440.27647</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>271324.42146</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>276418.88201</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>348337.378</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-12700.77384</v>
@@ -10741,32 +11348,37 @@
         <v>-37409.83618999999</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-62348.05560000001</v>
+        <v>-62348.0556</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-103690.60502</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-77629.77107</v>
+        <v>-84839.1047</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-159916.66957</v>
+        <v>-162886.01423</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-188762.54065</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-184799.61111</v>
+        <v>-184870.3946</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-219169.81959</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-220207.79156</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-254280.232</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>42295.17539</v>
@@ -10787,26 +11399,31 @@
         <v>18822.85251</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-16171.59617</v>
+        <v>-16897.21166</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>145554.0021099999</v>
+        <v>146525.63455</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>64067.27721</v>
+        <v>64067.27720999999</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>45009.17729</v>
+        <v>45087.55269999999</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>45956.87098</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>50492.83783999999</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>136671.504</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>46059.608</v>
@@ -10815,7 +11432,7 @@
         <v>43159.74999</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>60419.42948000001</v>
+        <v>60419.42948</v>
       </c>
       <c r="F240" s="21" t="n">
         <v>36635.40085</v>
@@ -10827,26 +11444,31 @@
         <v>59053.57309000001</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>66224.34817000001</v>
+        <v>66258.73424999999</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>179347.47493</v>
+        <v>180322.56113</v>
       </c>
       <c r="K240" s="22" t="n">
-        <v>95181.59386000001</v>
+        <v>95181.59385999998</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>87346.24341</v>
+        <v>87431.23892</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>85116.33636</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>90505.72878</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>157035.837</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>3764.43261</v>
@@ -10867,26 +11489,31 @@
         <v>40230.72058</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>82395.94434</v>
+        <v>83155.94590999999</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>33793.47282</v>
+        <v>33796.92658</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>31114.31665</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>42337.06612</v>
+        <v>42343.68622</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>39159.46537999999</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>40012.89094</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>20364.333</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>248930.95854</v>
@@ -10895,35 +11522,38 @@
         <v>285410.6188</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>450066.8275199999</v>
+        <v>450066.82752</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>523000.1198099999</v>
+        <v>523000.11981</v>
       </c>
       <c r="G242" s="47" t="n">
         <v>845050.4404200001</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>948042.2618699999</v>
+        <v>948042.2618700003</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>1096684.91909</v>
+        <v>1124583.74336</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>2262666.0985</v>
+        <v>2269067.70295</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>2652908.49363</v>
+        <v>2652908.493629999</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>746619.7631900001</v>
+        <v>747279.3798700002</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>833029.2055200001</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>863532.36697</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1090125.59</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>173</v>
@@ -10963,23 +11596,26 @@
         <v>258</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>315</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>314</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>346</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>347</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>